--- a/src/test/resources/data/out/playToLogoGame.xlsx
+++ b/src/test/resources/data/out/playToLogoGame.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
   <si>
     <t>Résultat</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>2 / 12</t>
-  </si>
-  <si>
-    <t>Échec : Ouverture LOGOGAME.</t>
-  </si>
-  <si>
-    <t>Échec : Impossible de s'authentifier avec les informations fournies.</t>
   </si>
 </sst>
 </file>
@@ -105,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,176 +145,6 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -415,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -440,40 +264,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,7 +630,7 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="3"/>
@@ -853,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3"/>
@@ -866,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="4"/>
@@ -879,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="3"/>
@@ -892,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="3"/>
@@ -905,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="4"/>
@@ -920,7 +710,7 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="3"/>
@@ -933,7 +723,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -945,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="3"/>
@@ -958,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="3"/>
@@ -971,7 +761,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="4"/>
@@ -984,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="3"/>
@@ -997,7 +787,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3"/>
@@ -1010,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="4"/>
@@ -1023,7 +813,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1037,7 +827,7 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1049,7 +839,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1061,7 +851,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1073,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1085,7 +875,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1097,7 +887,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1109,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1121,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="20" t="s">
         <v>20</v>
       </c>
     </row>

--- a/src/test/resources/data/out/playToLogoGame.xlsx
+++ b/src/test/resources/data/out/playToLogoGame.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>Résultat</t>
   </si>
@@ -79,27 +79,20 @@
     <t>citroën</t>
   </si>
   <si>
-    <t>Succès</t>
-  </si>
-  <si>
-    <t>8 / 12</t>
-  </si>
-  <si>
-    <t>12 / 12</t>
-  </si>
-  <si>
-    <t>Échec : Brand does not exist.</t>
-  </si>
-  <si>
-    <t>2 / 12</t>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>heineken</t>
+  </si>
+  <si>
+    <t>burgerking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,68 +139,8 @@
       <color indexed="17"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +159,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -239,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -252,23 +191,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -594,16 +557,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,12 +590,8 @@
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -643,9 +602,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,9 +613,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,9 +624,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,9 +635,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -695,9 +646,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -707,12 +656,8 @@
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,9 +668,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -735,9 +678,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -748,9 +689,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -761,9 +700,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,9 +711,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -787,9 +722,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="D14" s="10"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,9 +733,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -813,9 +744,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -824,12 +753,8 @@
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>20</v>
-      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -839,9 +764,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -851,9 +774,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="22" t="s">
-        <v>20</v>
-      </c>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -863,9 +784,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -875,9 +794,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -887,9 +804,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -899,9 +814,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -911,21 +824,43 @@
         <v>12</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -995,18 +930,38 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>COUNTIFS($A:$A,$A6,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>COUNTIFS($A:$A,$A16,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D24">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>COUNTIFS($A:$A,$A2,$D:$D, "Échec :*") &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B25 B26 A26:A28">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>COUNTIFS($A:$A,$A25,$D:$D, "Échec :*") &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>COUNTIFS($A:$A,$A28,$D:$D, "Échec :*") &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/data/out/playToLogoGame.xlsx
+++ b/src/test/resources/data/out/playToLogoGame.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="28">
   <si>
     <t>Résultat</t>
   </si>
@@ -86,13 +86,29 @@
   </si>
   <si>
     <t>burgerking</t>
+  </si>
+  <si>
+    <t>Succès</t>
+  </si>
+  <si>
+    <t>Échec : Ouverture LOGOGAME.</t>
+  </si>
+  <si>
+    <t>Élément non utilisé par le robot suite à une erreur précédente.</t>
+  </si>
+  <si>
+    <t>Succès sur cet élément</t>
+  </si>
+  <si>
+    <t>Échec : Brand « heineken » is prohibited.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +154,66 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -178,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -192,6 +268,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +651,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -591,7 +679,9 @@
         <v>5</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="9"/>
+      <c r="D2" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,7 +692,9 @@
         <v>16</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="9"/>
+      <c r="D3" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,7 +705,9 @@
         <v>19</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="9"/>
+      <c r="D4" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,7 +718,9 @@
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,7 +731,9 @@
         <v>17</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,7 +744,9 @@
         <v>7</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -657,7 +757,9 @@
         <v>5</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,7 +770,9 @@
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -678,7 +782,9 @@
         <v>8</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,7 +795,9 @@
         <v>9</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -700,7 +808,9 @@
         <v>19</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -711,7 +821,9 @@
         <v>6</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,7 +834,9 @@
         <v>17</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,7 +847,9 @@
         <v>7</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,7 +860,9 @@
         <v>8</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -754,7 +872,9 @@
         <v>17</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -764,7 +884,9 @@
         <v>14</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -774,7 +896,9 @@
         <v>5</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -784,7 +908,9 @@
         <v>9</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -794,7 +920,9 @@
         <v>18</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -804,7 +932,9 @@
         <v>10</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -814,7 +944,9 @@
         <v>11</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -824,7 +956,9 @@
         <v>12</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -833,8 +967,8 @@
       <c r="B25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D25">
-        <v>2</v>
+      <c r="D25" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -844,6 +978,9 @@
       <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="D26" s="24" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -853,6 +990,9 @@
         <v>21</v>
       </c>
       <c r="C27" s="12"/>
+      <c r="D27" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -860,6 +1000,9 @@
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/test/resources/data/out/playToLogoGame.xlsx
+++ b/src/test/resources/data/out/playToLogoGame.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="32">
   <si>
     <t>Résultat</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>Échec : Brand « heineken » is prohibited.</t>
+  </si>
+  <si>
+    <t>8 / 12</t>
+  </si>
+  <si>
+    <t>12 / 12</t>
+  </si>
+  <si>
+    <t>Alerte : Brand « fake » does not exist.</t>
+  </si>
+  <si>
+    <t>2 / 12</t>
   </si>
 </sst>
 </file>
@@ -108,7 +120,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +166,21 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -254,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -280,6 +307,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,9 +708,11 @@
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="23" t="s">
-        <v>24</v>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -692,8 +724,8 @@
         <v>16</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="24" t="s">
-        <v>25</v>
+      <c r="D3" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -705,8 +737,8 @@
         <v>19</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="24" t="s">
-        <v>25</v>
+      <c r="D4" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -718,8 +750,8 @@
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="24" t="s">
-        <v>25</v>
+      <c r="D5" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -731,8 +763,8 @@
         <v>17</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="24" t="s">
-        <v>25</v>
+      <c r="D6" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -744,8 +776,8 @@
         <v>7</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="24" t="s">
-        <v>25</v>
+      <c r="D7" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -756,9 +788,11 @@
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="23" t="s">
-        <v>24</v>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -770,8 +804,8 @@
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="24" t="s">
-        <v>25</v>
+      <c r="D9" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -782,8 +816,8 @@
         <v>8</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="24" t="s">
-        <v>25</v>
+      <c r="D10" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -795,8 +829,8 @@
         <v>9</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="24" t="s">
-        <v>25</v>
+      <c r="D11" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -808,8 +842,8 @@
         <v>19</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="24" t="s">
-        <v>25</v>
+      <c r="D12" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -821,8 +855,8 @@
         <v>6</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="24" t="s">
-        <v>25</v>
+      <c r="D13" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -834,8 +868,8 @@
         <v>17</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="24" t="s">
-        <v>25</v>
+      <c r="D14" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -847,8 +881,8 @@
         <v>7</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="24" t="s">
-        <v>25</v>
+      <c r="D15" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -860,8 +894,8 @@
         <v>8</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="24" t="s">
-        <v>25</v>
+      <c r="D16" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,9 +905,11 @@
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="23" t="s">
-        <v>24</v>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,8 +920,8 @@
         <v>14</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="24" t="s">
-        <v>25</v>
+      <c r="D18" s="27" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,8 +932,8 @@
         <v>5</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="24" t="s">
-        <v>25</v>
+      <c r="D19" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -908,8 +944,8 @@
         <v>9</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="24" t="s">
-        <v>25</v>
+      <c r="D20" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -920,8 +956,8 @@
         <v>18</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="24" t="s">
-        <v>25</v>
+      <c r="D21" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,8 +968,8 @@
         <v>10</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="24" t="s">
-        <v>25</v>
+      <c r="D22" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -944,8 +980,8 @@
         <v>11</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="24" t="s">
-        <v>25</v>
+      <c r="D23" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -956,8 +992,8 @@
         <v>12</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="24" t="s">
-        <v>25</v>
+      <c r="D24" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -967,7 +1003,7 @@
       <c r="B25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="27" t="s">
         <v>26</v>
       </c>
     </row>
@@ -978,7 +1014,7 @@
       <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="27" t="s">
         <v>26</v>
       </c>
     </row>
@@ -990,7 +1026,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1001,7 +1037,7 @@
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="27" t="s">
         <v>25</v>
       </c>
     </row>

--- a/src/test/resources/data/out/playToLogoGame.xlsx
+++ b/src/test/resources/data/out/playToLogoGame.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
+    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="35">
   <si>
     <t>Résultat</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>2 / 12</t>
+  </si>
+  <si>
+    <t>Succès pour cet élément</t>
+  </si>
+  <si>
+    <t>Élément ignoré suite à une erreur précédente.</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Ouverture de la page LOGOGAME. /!\</t>
   </si>
 </sst>
 </file>
@@ -120,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +175,216 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -279,40 +498,82 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="70">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -372,7 +633,7 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFFF6600"/>
@@ -391,10 +652,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -552,7 +813,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -561,13 +822,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -577,7 +838,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -586,7 +847,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -595,7 +856,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -605,12 +866,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -641,7 +902,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -660,7 +921,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -672,8 +933,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
@@ -711,7 +972,7 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="3"/>
@@ -724,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="3"/>
@@ -737,7 +998,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4"/>
@@ -750,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="3"/>
@@ -763,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="3"/>
@@ -776,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="4"/>
@@ -791,7 +1052,7 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="3"/>
@@ -804,7 +1065,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="67" t="s">
         <v>23</v>
       </c>
     </row>
@@ -816,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="3"/>
@@ -829,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="3"/>
@@ -842,7 +1103,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="4"/>
@@ -855,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="3"/>
@@ -868,7 +1129,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="3"/>
@@ -881,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="67" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="4"/>
@@ -894,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="67" t="s">
         <v>23</v>
       </c>
     </row>
@@ -908,7 +1169,7 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="67" t="s">
         <v>23</v>
       </c>
     </row>
@@ -920,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="69" t="s">
         <v>30</v>
       </c>
     </row>
@@ -932,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="67" t="s">
         <v>23</v>
       </c>
     </row>
@@ -944,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="67" t="s">
         <v>23</v>
       </c>
     </row>
@@ -956,7 +1217,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="67" t="s">
         <v>23</v>
       </c>
     </row>
@@ -968,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="67" t="s">
         <v>23</v>
       </c>
     </row>
@@ -980,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="67" t="s">
         <v>23</v>
       </c>
     </row>
@@ -992,7 +1253,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="67" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1003,8 +1264,8 @@
       <c r="B25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>26</v>
+      <c r="D25" s="69" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1014,8 +1275,8 @@
       <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>26</v>
+      <c r="D26" s="69" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1026,7 +1287,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="68" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1037,8 +1298,8 @@
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>25</v>
+      <c r="D28" s="69" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,41 +1370,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule dxfId="7" priority="8" type="expression">
       <formula>COUNTIFS($A:$A,$A6,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule dxfId="6" priority="5" type="expression">
       <formula>COUNTIFS($A:$A,$A16,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D24">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule dxfId="5" priority="9" type="expression">
       <formula>COUNTIFS($A:$A,$A2,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule dxfId="4" priority="4" type="expression">
       <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 B26 A26:A28">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule dxfId="3" priority="3" type="expression">
       <formula>COUNTIFS($A:$A,$A25,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule dxfId="2" priority="2" type="expression">
       <formula>COUNTIFS($A:$A,$A28,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule dxfId="1" priority="1" type="expression">
       <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/playToLogoGame.xlsx
+++ b/src/test/resources/data/out/playToLogoGame.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" r:id="rId1" sheetId="1"/>
+    <sheet name="NoraUi-playToLogoGame" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>Résultat</t>
   </si>
@@ -86,50 +86,13 @@
   </si>
   <si>
     <t>burgerking</t>
-  </si>
-  <si>
-    <t>Succès</t>
-  </si>
-  <si>
-    <t>Échec : Ouverture LOGOGAME.</t>
-  </si>
-  <si>
-    <t>Élément non utilisé par le robot suite à une erreur précédente.</t>
-  </si>
-  <si>
-    <t>Succès sur cet élément</t>
-  </si>
-  <si>
-    <t>Échec : Brand « heineken » is prohibited.</t>
-  </si>
-  <si>
-    <t>8 / 12</t>
-  </si>
-  <si>
-    <t>12 / 12</t>
-  </si>
-  <si>
-    <t>Alerte : Brand « fake » does not exist.</t>
-  </si>
-  <si>
-    <t>2 / 12</t>
-  </si>
-  <si>
-    <t>Succès pour cet élément</t>
-  </si>
-  <si>
-    <t>Élément ignoré suite à une erreur précédente.</t>
-  </si>
-  <si>
-    <t>Échec : /!\ Ouverture de la page LOGOGAME. /!\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="65" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,311 +118,31 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -477,13 +160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF006058"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,91 +181,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -633,7 +252,7 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFFF6600"/>
@@ -652,10 +271,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -813,7 +432,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -822,13 +441,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -838,7 +457,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -847,7 +466,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -856,7 +475,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -866,12 +485,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -902,7 +521,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -921,7 +540,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -933,26 +552,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -966,15 +585,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -985,22 +600,18 @@
         <v>16</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,296 +622,243 @@
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="69" t="s">
-        <v>30</v>
-      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="67" t="s">
-        <v>23</v>
-      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="69" t="s">
-        <v>32</v>
+      <c r="D25">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="69" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="68" t="s">
-        <v>27</v>
-      </c>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="69" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1370,41 +928,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule dxfId="7" priority="8" type="expression">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>COUNTIFS($A:$A,$A6,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule dxfId="6" priority="5" type="expression">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>COUNTIFS($A:$A,$A16,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D24">
-    <cfRule dxfId="5" priority="9" type="expression">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>COUNTIFS($A:$A,$A2,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule dxfId="4" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 B26 A26:A28">
-    <cfRule dxfId="3" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>COUNTIFS($A:$A,$A25,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule dxfId="2" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>COUNTIFS($A:$A,$A28,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule dxfId="1" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>